--- a/projects/1-CNN/results.xlsx
+++ b/projects/1-CNN/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\neuralnets\projects\1-CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B441D0-CC6C-436A-AA38-AEEF75358314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F6E9E-8E89-4E54-B443-88D5159EC894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{382EE61A-D709-4356-8919-042026195128}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="1110" activeTab="1" xr2:uid="{382EE61A-D709-4356-8919-042026195128}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Tilt</t>
   </si>
@@ -43,9 +44,6 @@
   </si>
   <si>
     <t>Model: Conv base w classifier at last layer</t>
-  </si>
-  <si>
-    <t>Trained on: 20,000 images with tilt 2.26 + contrast 1</t>
   </si>
   <si>
     <t>High Conf: 0.36
@@ -148,13 +146,33 @@
   </si>
   <si>
     <t>The model appears biased towards the tilt + contrast it was trained on. Highest conf in 2.26 avg and 1 contrast</t>
+  </si>
+  <si>
+    <t>High Conf: 0.38
+Tf Acc: 0.61
+My Acc: 0.66</t>
+  </si>
+  <si>
+    <t>tilts</t>
+  </si>
+  <si>
+    <t>contrasts 0.3, 0.45, 1</t>
+  </si>
+  <si>
+    <t>Range model</t>
+  </si>
+  <si>
+    <t>Trained on: 20,000 images with tilt 2.26 + contrast 1, threshold = 2</t>
+  </si>
+  <si>
+    <t>Trained on: 18,000 images with tilts [0.1, 0.2, 0.4, 0.8, 1.6, 3.2] &amp; contrasts [0.3, 0.45, 1], threshold = 0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +183,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -191,15 +217,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,6 +228,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3564C984-96C4-4BC7-9CD1-1591A1E566AE}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,15 +568,15 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
@@ -562,92 +589,92 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+    <row r="7" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="5">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="5">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -658,4 +685,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12FB55-1A2B-44DB-8E20-09BF3B45978C}">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/projects/1-CNN/results.xlsx
+++ b/projects/1-CNN/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\neuralnets\projects\1-CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F6E9E-8E89-4E54-B443-88D5159EC894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181D2D9B-079A-4FCD-85AF-2BBBAF614D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="1110" activeTab="1" xr2:uid="{382EE61A-D709-4356-8919-042026195128}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{382EE61A-D709-4356-8919-042026195128}"/>
   </bookViews>
   <sheets>
     <sheet name="Model 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Tilt</t>
   </si>
@@ -166,6 +166,54 @@
   </si>
   <si>
     <t>Trained on: 18,000 images with tilts [0.1, 0.2, 0.4, 0.8, 1.6, 3.2] &amp; contrasts [0.3, 0.45, 1], threshold = 0.5</t>
+  </si>
+  <si>
+    <t>High Conf: 0.33
+Tf Acc: 0.52
+My Acc: 0.55</t>
+  </si>
+  <si>
+    <t>High Conf: 0.35
+Tf Acc: 0.56
+My Acc: 0.61</t>
+  </si>
+  <si>
+    <t>High Conf: 0.36
+Tf Acc: 0.61
+My Acc: 0.67</t>
+  </si>
+  <si>
+    <t>High Conf: 0.43
+Tf Acc: 0.68
+My Acc: 0.75</t>
+  </si>
+  <si>
+    <t>High Conf: 0.48
+Tf Acc: 0.72
+My Acc: 0.82</t>
+  </si>
+  <si>
+    <t>High Conf: 0.33
+Tf Acc: 0.53
+My Acc: 0.56</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>The High Conf (0.38) and My Acc (0.66) calculated using the test set comprised of the full range of tilts and contrasts reflected an average of all the High Conf and My Acc calculations across tilts</t>
+  </si>
+  <si>
+    <t>The confidence began slowly ticking up at the third tilt (0.4) and took a large jump in the fifth tilt (1.6)</t>
+  </si>
+  <si>
+    <t>The first two tilts (0.1 &amp; 0.2) were too slight for the model to discriminate between very well.</t>
+  </si>
+  <si>
+    <t>Not until the 4th tilt (0.8) was there a more noticeable performance above chance (0.6+)</t>
+  </si>
+  <si>
+    <t>The model becomes more confident and performs better as the tilts become greater</t>
   </si>
 </sst>
 </file>
@@ -217,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,13 +276,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,11 +624,11 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
@@ -593,7 +645,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
@@ -613,7 +665,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3">
         <v>2.2599999999999998</v>
       </c>
@@ -631,7 +683,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3">
         <v>4.5199999999999996</v>
       </c>
@@ -689,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12FB55-1A2B-44DB-8E20-09BF3B45978C}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,57 +752,103 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3.2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/projects/1-CNN/results.xlsx
+++ b/projects/1-CNN/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\neuralnets\projects\1-CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181D2D9B-079A-4FCD-85AF-2BBBAF614D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956222C9-1E00-47D3-9CC7-B33BE4DF7F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{382EE61A-D709-4356-8919-042026195128}"/>
+    <workbookView xWindow="0" yWindow="19350" windowWidth="15285" windowHeight="780" activeTab="1" xr2:uid="{382EE61A-D709-4356-8919-042026195128}"/>
   </bookViews>
   <sheets>
     <sheet name="Model 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Model 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Model2" sheetId="3" r:id="rId2"/>
+    <sheet name="Model 2 -range" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Tilt</t>
   </si>
@@ -214,6 +215,160 @@
   </si>
   <si>
     <t>The model becomes more confident and performs better as the tilts become greater</t>
+  </si>
+  <si>
+    <t>High Conf: 0.72
+Tf Acc: 0.54
+My Acc: 0.51</t>
+  </si>
+  <si>
+    <t>High Conf: 0.19
+Tf Acc: 0.51
+My Acc: 0.52</t>
+  </si>
+  <si>
+    <t>High Conf: 0.04
+Tf Acc: 0.50
+My Acc: 0.54</t>
+  </si>
+  <si>
+    <t>High Conf: 0.04
+Tf Acc: 0.50
+My Acc: 0.56</t>
+  </si>
+  <si>
+    <t>High Conf: 0.21
+Tf Acc: 0.52
+My Acc: 0.57</t>
+  </si>
+  <si>
+    <t>High Conf: 0.74
+Tf Acc: 0.58
+My Acc: 0.58</t>
+  </si>
+  <si>
+    <t>High Conf: 0.32
+Tf Acc: 0.52
+My Acc: 0.52</t>
+  </si>
+  <si>
+    <t>High Conf: 0.33
+Tf Acc: 0.53
+My Acc: 0.57</t>
+  </si>
+  <si>
+    <t>High Conf: 0.05
+Tf Acc: 0.50
+My Acc: 0.56</t>
+  </si>
+  <si>
+    <t>High Conf: 0.17
+Tf Acc: 0.51
+My Acc: 0.56</t>
+  </si>
+  <si>
+    <t>High Conf: 0.76
+Tf Acc: 0.67
+My Acc: 0.71</t>
+  </si>
+  <si>
+    <t>High Conf: 0.33
+Tf Acc: 0.56
+My Acc: 0.61</t>
+  </si>
+  <si>
+    <t>High Conf: 0.05
+Tf Acc: 0.50
+My Acc: 0.55</t>
+  </si>
+  <si>
+    <t>High Conf: 0.20
+Tf Acc: 0.53
+My Acc: 0.58</t>
+  </si>
+  <si>
+    <t>High Conf: 0.84
+Tf Acc: 0.81
+My Acc: 0.88</t>
+  </si>
+  <si>
+    <t>High Conf: 0.05
+Tf Acc: 0.51
+My Acc: 0.58</t>
+  </si>
+  <si>
+    <t>High Conf: 0.26
+Tf Acc: 0.58
+My Acc: 0.66</t>
+  </si>
+  <si>
+    <t>High Conf: 0.97
+Tf Acc: 0.97
+My Acc: 0.99</t>
+  </si>
+  <si>
+    <t>High Conf: 0.43
+Tf Acc: 0.69
+My Acc: 0.74</t>
+  </si>
+  <si>
+    <t>High Conf: 0.07
+Tf Acc: 0.52
+My Acc: 0.65</t>
+  </si>
+  <si>
+    <t>High Conf: 0.40
+Tf Acc: 0.68
+My Acc: 0.83</t>
+  </si>
+  <si>
+    <t>High Conf: 1.0
+Tf Acc: 1.0
+My Acc: 1.0</t>
+  </si>
+  <si>
+    <t>High Conf: 0.49
+Tf Acc: 0.73
+My Acc: 0.83</t>
+  </si>
+  <si>
+    <t>High Conf: 0.05
+Tf Acc: 0.51
+My Acc: 0.57</t>
+  </si>
+  <si>
+    <t>High Conf: 0.24
+Tf Acc: 0.56
+My Acc: 0.62</t>
+  </si>
+  <si>
+    <t>High Conf: 0.84
+Tf Acc: 0.76
+My Acc: 0.78</t>
+  </si>
+  <si>
+    <t>Confidence is driven by contrast to a much greater extent than tilt</t>
+  </si>
+  <si>
+    <t>Accuracy and confidence trend up as tilt and contrast increase</t>
+  </si>
+  <si>
+    <t>Tilts</t>
+  </si>
+  <si>
+    <t>Avg Conf</t>
+  </si>
+  <si>
+    <t>Avg My Acc</t>
+  </si>
+  <si>
+    <t>In fact, contrast drives confidence much more strongly than it drives accuracy</t>
+  </si>
+  <si>
+    <t>The tilts appear to drive accuracy more than contrast does</t>
+  </si>
+  <si>
+    <t>Takeaway: Tilt drives accuracy and contrast drives confidence</t>
   </si>
 </sst>
 </file>
@@ -265,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,12 +435,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,6 +465,2104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Confidence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model2!$L$6:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model2!$M$6:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA2C-4D54-80A9-297FBE35F6EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model2!$L$6:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model2!$N$6:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BA2C-4D54-80A9-297FBE35F6EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="181653120"/>
+        <c:axId val="181650624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="181653120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tilts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181650624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="181650624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181653120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Confidence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model2!$I$6:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model2!$J$6:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37DA-410C-A8B9-6BC525E80719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model2!$I$6:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model2!$K$6:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37DA-410C-A8B9-6BC525E80719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="272020528"/>
+        <c:axId val="272017616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="272020528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Contrasts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272017616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="272017616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272020528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>519112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93E626E-FDB2-49E7-9EA5-02A723895A95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5935EAA5-C9E5-4BD7-837E-9F56EB2DAB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,7 +2865,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,11 +2885,11 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
@@ -645,7 +2906,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
@@ -665,7 +2926,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3">
         <v>2.2599999999999998</v>
       </c>
@@ -683,7 +2944,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3">
         <v>4.5199999999999996</v>
       </c>
@@ -740,11 +3001,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3A648-38CD-4079-A8B8-59638500A5A4}">
+  <dimension ref="B4:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>0.3</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+      <c r="K6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M6">
+        <v>0.32</v>
+      </c>
+      <c r="N6">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>0.45</v>
+      </c>
+      <c r="J7">
+        <v>0.24</v>
+      </c>
+      <c r="K7">
+        <v>0.62</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.33</v>
+      </c>
+      <c r="N7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.84</v>
+      </c>
+      <c r="K8">
+        <v>0.78</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M8">
+        <v>0.33</v>
+      </c>
+      <c r="N8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M9">
+        <v>0.36</v>
+      </c>
+      <c r="N9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="M10">
+        <v>0.43</v>
+      </c>
+      <c r="N10">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="M11">
+        <v>0.49</v>
+      </c>
+      <c r="N11">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12FB55-1A2B-44DB-8E20-09BF3B45978C}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +3325,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -827,7 +3384,7 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
